--- a/Session1/results_rbf_variando_sigma.xlsx
+++ b/Session1/results_rbf_variando_sigma.xlsx
@@ -3748,7 +3748,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
